--- a/Product_Backlog_EndVersion-completed - Total2.xlsx
+++ b/Product_Backlog_EndVersion-completed - Total2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MCGillUniversity\Capston\Docs\AllFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593D0946-4C1C-4DC0-BC0F-F665CA59087E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA7F207-8CEF-446C-80BE-825AF5A5670A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="185">
   <si>
     <t>Story ID</t>
   </si>
@@ -1823,7 +1823,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,7 +1896,7 @@
         <v>43</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>159</v>
@@ -1917,7 +1917,7 @@
         <v>58</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>85</v>
@@ -1940,7 +1940,7 @@
         <v>42</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>164</v>
@@ -1963,7 +1963,7 @@
         <v>64</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="G10" s="17" t="s">
         <v>65</v>
@@ -1986,7 +1986,7 @@
         <v>46</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="G11" s="17" t="s">
         <v>45</v>
@@ -2032,7 +2032,7 @@
         <v>47</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="G13" s="28" t="s">
         <v>48</v>
@@ -2054,7 +2054,9 @@
       <c r="E14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="22"/>
+      <c r="F14" s="22" t="s">
+        <v>131</v>
+      </c>
       <c r="G14" s="17" t="s">
         <v>77</v>
       </c>
@@ -2076,7 +2078,7 @@
         <v>58</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>80</v>
@@ -2202,8 +2204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,7 +2257,7 @@
         <v>90</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="G2" s="48" t="s">
         <v>91</v>
@@ -2278,7 +2280,7 @@
         <v>42</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="G3" s="48" t="s">
         <v>127</v>
@@ -2301,7 +2303,7 @@
         <v>100</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="G4" s="33" t="s">
         <v>128</v>
@@ -2324,7 +2326,7 @@
         <v>42</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="G5" s="48" t="s">
         <v>129</v>
@@ -2344,7 +2346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
